--- a/data/flaviolin/DBTL2/edd_experiment_description.xlsx
+++ b/data/flaviolin/DBTL2/edd_experiment_description.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0270, Glucose: 20.0000, K2SO4: 0.2293, K2HPO4: 0.5565, FeSO4: 0.0023, NH4Cl: 7.3701, MgCl2: 1.3869, NaCl: 355.0938, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0001, CuSO4: 0.0008, MnSO4: 0.0006, ZnSO4: 0.0002</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.026992, Glucose: 20.000000, K2SO4: 0.229277, K2HPO4: 0.556502, FeSO4: 0.002319, NH4Cl: 7.370092, MgCl2: 1.386888, NaCl: 355.093844, (NH4)6Mo7O24: 0.000028, CoCl2: 0.000101, CuSO4: 0.000790, MnSO4: 0.000560, ZnSO4: 0.000172</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0270, Glucose: 20.0000, K2SO4: 0.2293, K2HPO4: 0.5565, FeSO4: 0.0023, NH4Cl: 7.3701, MgCl2: 1.3869, NaCl: 355.0938, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0001, CuSO4: 0.0008, MnSO4: 0.0006, ZnSO4: 0.0002</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.026992, Glucose: 20.000000, K2SO4: 0.229277, K2HPO4: 0.556502, FeSO4: 0.002319, NH4Cl: 7.370092, MgCl2: 1.386888, NaCl: 355.093844, (NH4)6Mo7O24: 0.000028, CoCl2: 0.000101, CuSO4: 0.000790, MnSO4: 0.000560, ZnSO4: 0.000172</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0270, Glucose: 20.0000, K2SO4: 0.2293, K2HPO4: 0.5565, FeSO4: 0.0023, NH4Cl: 7.3701, MgCl2: 1.3869, NaCl: 355.0938, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0001, CuSO4: 0.0008, MnSO4: 0.0006, ZnSO4: 0.0002</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.026992, Glucose: 20.000000, K2SO4: 0.229277, K2HPO4: 0.556502, FeSO4: 0.002319, NH4Cl: 7.370092, MgCl2: 1.386888, NaCl: 355.093844, (NH4)6Mo7O24: 0.000028, CoCl2: 0.000101, CuSO4: 0.000790, MnSO4: 0.000560, ZnSO4: 0.000172</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0270, Glucose: 20.0000, K2SO4: 0.2293, K2HPO4: 0.5565, FeSO4: 0.0023, NH4Cl: 7.3701, MgCl2: 1.3869, NaCl: 355.0938, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0001, CuSO4: 0.0008, MnSO4: 0.0006, ZnSO4: 0.0002</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.026992, Glucose: 20.000000, K2SO4: 0.229277, K2HPO4: 0.556502, FeSO4: 0.002319, NH4Cl: 7.370092, MgCl2: 1.386888, NaCl: 355.093844, (NH4)6Mo7O24: 0.000028, CoCl2: 0.000101, CuSO4: 0.000790, MnSO4: 0.000560, ZnSO4: 0.000172</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0012, Glucose: 20.0000, K2SO4: 2.3564, K2HPO4: 0.9651, FeSO4: 0.0056, NH4Cl: 10.2530, MgCl2: 0.4287, NaCl: 133.0735, (NH4)6Mo7O24: 0.0001, CoCl2: 0.0002, CuSO4: 0.0007, MnSO4: 0.0024, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.001199, Glucose: 20.000000, K2SO4: 2.356433, K2HPO4: 0.965094, FeSO4: 0.005574, NH4Cl: 10.252992, MgCl2: 0.428695, NaCl: 133.073471, (NH4)6Mo7O24: 0.000090, CoCl2: 0.000246, CuSO4: 0.000706, MnSO4: 0.002361, ZnSO4: 0.000076</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0012, Glucose: 20.0000, K2SO4: 2.3564, K2HPO4: 0.9651, FeSO4: 0.0056, NH4Cl: 10.2530, MgCl2: 0.4287, NaCl: 133.0735, (NH4)6Mo7O24: 0.0001, CoCl2: 0.0002, CuSO4: 0.0007, MnSO4: 0.0024, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.001199, Glucose: 20.000000, K2SO4: 2.356433, K2HPO4: 0.965094, FeSO4: 0.005574, NH4Cl: 10.252992, MgCl2: 0.428695, NaCl: 133.073471, (NH4)6Mo7O24: 0.000090, CoCl2: 0.000246, CuSO4: 0.000706, MnSO4: 0.002361, ZnSO4: 0.000076</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0012, Glucose: 20.0000, K2SO4: 2.3564, K2HPO4: 0.9651, FeSO4: 0.0056, NH4Cl: 10.2530, MgCl2: 0.4287, NaCl: 133.0735, (NH4)6Mo7O24: 0.0001, CoCl2: 0.0002, CuSO4: 0.0007, MnSO4: 0.0024, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.001199, Glucose: 20.000000, K2SO4: 2.356433, K2HPO4: 0.965094, FeSO4: 0.005574, NH4Cl: 10.252992, MgCl2: 0.428695, NaCl: 133.073471, (NH4)6Mo7O24: 0.000090, CoCl2: 0.000246, CuSO4: 0.000706, MnSO4: 0.002361, ZnSO4: 0.000076</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0012, Glucose: 20.0000, K2SO4: 2.3564, K2HPO4: 0.9651, FeSO4: 0.0056, NH4Cl: 10.2530, MgCl2: 0.4287, NaCl: 133.0735, (NH4)6Mo7O24: 0.0001, CoCl2: 0.0002, CuSO4: 0.0007, MnSO4: 0.0024, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.001199, Glucose: 20.000000, K2SO4: 2.356433, K2HPO4: 0.965094, FeSO4: 0.005574, NH4Cl: 10.252992, MgCl2: 0.428695, NaCl: 133.073471, (NH4)6Mo7O24: 0.000090, CoCl2: 0.000246, CuSO4: 0.000706, MnSO4: 0.002361, ZnSO4: 0.000076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0007, Glucose: 20.0000, K2SO4: 1.9626, K2HPO4: 0.8732, FeSO4: 0.0088, NH4Cl: 12.6605, MgCl2: 0.3397, NaCl: 46.5130, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0024, CuSO4: 0.0002, MnSO4: 0.0031, ZnSO4: 0.0008</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.000652, Glucose: 20.000000, K2SO4: 1.962582, K2HPO4: 0.873249, FeSO4: 0.008783, NH4Cl: 12.660508, MgCl2: 0.339745, NaCl: 46.512992, (NH4)6Mo7O24: 0.000024, CoCl2: 0.002356, CuSO4: 0.000249, MnSO4: 0.003064, ZnSO4: 0.000828</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0007, Glucose: 20.0000, K2SO4: 1.9626, K2HPO4: 0.8732, FeSO4: 0.0088, NH4Cl: 12.6605, MgCl2: 0.3397, NaCl: 46.5130, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0024, CuSO4: 0.0002, MnSO4: 0.0031, ZnSO4: 0.0008</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.000652, Glucose: 20.000000, K2SO4: 1.962582, K2HPO4: 0.873249, FeSO4: 0.008783, NH4Cl: 12.660508, MgCl2: 0.339745, NaCl: 46.512992, (NH4)6Mo7O24: 0.000024, CoCl2: 0.002356, CuSO4: 0.000249, MnSO4: 0.003064, ZnSO4: 0.000828</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0007, Glucose: 20.0000, K2SO4: 1.9626, K2HPO4: 0.8732, FeSO4: 0.0088, NH4Cl: 12.6605, MgCl2: 0.3397, NaCl: 46.5130, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0024, CuSO4: 0.0002, MnSO4: 0.0031, ZnSO4: 0.0008</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.000652, Glucose: 20.000000, K2SO4: 1.962582, K2HPO4: 0.873249, FeSO4: 0.008783, NH4Cl: 12.660508, MgCl2: 0.339745, NaCl: 46.512992, (NH4)6Mo7O24: 0.000024, CoCl2: 0.002356, CuSO4: 0.000249, MnSO4: 0.003064, ZnSO4: 0.000828</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0007, Glucose: 20.0000, K2SO4: 1.9626, K2HPO4: 0.8732, FeSO4: 0.0088, NH4Cl: 12.6605, MgCl2: 0.3397, NaCl: 46.5130, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0024, CuSO4: 0.0002, MnSO4: 0.0031, ZnSO4: 0.0008</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.000652, Glucose: 20.000000, K2SO4: 1.962582, K2HPO4: 0.873249, FeSO4: 0.008783, NH4Cl: 12.660508, MgCl2: 0.339745, NaCl: 46.512992, (NH4)6Mo7O24: 0.000024, CoCl2: 0.002356, CuSO4: 0.000249, MnSO4: 0.003064, ZnSO4: 0.000828</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0014, Glucose: 20.0000, K2SO4: 1.5252, K2HPO4: 0.6857, FeSO4: 0.0031, NH4Cl: 7.1113, MgCl2: 2.9892, NaCl: 268.9133, (NH4)6Mo7O24: 0.0003, CoCl2: 0.0002, CuSO4: 0.0006, MnSO4: 0.0007, ZnSO4: 0.0006</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.001419, Glucose: 20.000000, K2SO4: 1.525230, K2HPO4: 0.685683, FeSO4: 0.003056, NH4Cl: 7.111266, MgCl2: 2.989155, NaCl: 268.913280, (NH4)6Mo7O24: 0.000293, CoCl2: 0.000203, CuSO4: 0.000617, MnSO4: 0.000727, ZnSO4: 0.000616</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0014, Glucose: 20.0000, K2SO4: 1.5252, K2HPO4: 0.6857, FeSO4: 0.0031, NH4Cl: 7.1113, MgCl2: 2.9892, NaCl: 268.9133, (NH4)6Mo7O24: 0.0003, CoCl2: 0.0002, CuSO4: 0.0006, MnSO4: 0.0007, ZnSO4: 0.0006</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.001419, Glucose: 20.000000, K2SO4: 1.525230, K2HPO4: 0.685683, FeSO4: 0.003056, NH4Cl: 7.111266, MgCl2: 2.989155, NaCl: 268.913280, (NH4)6Mo7O24: 0.000293, CoCl2: 0.000203, CuSO4: 0.000617, MnSO4: 0.000727, ZnSO4: 0.000616</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0014, Glucose: 20.0000, K2SO4: 1.5252, K2HPO4: 0.6857, FeSO4: 0.0031, NH4Cl: 7.1113, MgCl2: 2.9892, NaCl: 268.9133, (NH4)6Mo7O24: 0.0003, CoCl2: 0.0002, CuSO4: 0.0006, MnSO4: 0.0007, ZnSO4: 0.0006</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.001419, Glucose: 20.000000, K2SO4: 1.525230, K2HPO4: 0.685683, FeSO4: 0.003056, NH4Cl: 7.111266, MgCl2: 2.989155, NaCl: 268.913280, (NH4)6Mo7O24: 0.000293, CoCl2: 0.000203, CuSO4: 0.000617, MnSO4: 0.000727, ZnSO4: 0.000616</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0014, Glucose: 20.0000, K2SO4: 1.5252, K2HPO4: 0.6857, FeSO4: 0.0031, NH4Cl: 7.1113, MgCl2: 2.9892, NaCl: 268.9133, (NH4)6Mo7O24: 0.0003, CoCl2: 0.0002, CuSO4: 0.0006, MnSO4: 0.0007, ZnSO4: 0.0006</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.001419, Glucose: 20.000000, K2SO4: 1.525230, K2HPO4: 0.685683, FeSO4: 0.003056, NH4Cl: 7.111266, MgCl2: 2.989155, NaCl: 268.913280, (NH4)6Mo7O24: 0.000293, CoCl2: 0.000203, CuSO4: 0.000617, MnSO4: 0.000727, ZnSO4: 0.000616</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0394, Glucose: 20.0000, K2SO4: 2.8116, K2HPO4: 1.2343, FeSO4: 0.0870, NH4Cl: 13.4945, MgCl2: 3.3469, NaCl: 35.5801, (NH4)6Mo7O24: 0.0001, CoCl2: 0.0000, CuSO4: 0.0000, MnSO4: 0.0002, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.039355, Glucose: 20.000000, K2SO4: 2.811631, K2HPO4: 1.234260, FeSO4: 0.087010, NH4Cl: 13.494543, MgCl2: 3.346859, NaCl: 35.580086, (NH4)6Mo7O24: 0.000054, CoCl2: 0.000034, CuSO4: 0.000046, MnSO4: 0.000217, ZnSO4: 0.000071</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0394, Glucose: 20.0000, K2SO4: 2.8116, K2HPO4: 1.2343, FeSO4: 0.0870, NH4Cl: 13.4945, MgCl2: 3.3469, NaCl: 35.5801, (NH4)6Mo7O24: 0.0001, CoCl2: 0.0000, CuSO4: 0.0000, MnSO4: 0.0002, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.039355, Glucose: 20.000000, K2SO4: 2.811631, K2HPO4: 1.234260, FeSO4: 0.087010, NH4Cl: 13.494543, MgCl2: 3.346859, NaCl: 35.580086, (NH4)6Mo7O24: 0.000054, CoCl2: 0.000034, CuSO4: 0.000046, MnSO4: 0.000217, ZnSO4: 0.000071</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0394, Glucose: 20.0000, K2SO4: 2.8116, K2HPO4: 1.2343, FeSO4: 0.0870, NH4Cl: 13.4945, MgCl2: 3.3469, NaCl: 35.5801, (NH4)6Mo7O24: 0.0001, CoCl2: 0.0000, CuSO4: 0.0000, MnSO4: 0.0002, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.039355, Glucose: 20.000000, K2SO4: 2.811631, K2HPO4: 1.234260, FeSO4: 0.087010, NH4Cl: 13.494543, MgCl2: 3.346859, NaCl: 35.580086, (NH4)6Mo7O24: 0.000054, CoCl2: 0.000034, CuSO4: 0.000046, MnSO4: 0.000217, ZnSO4: 0.000071</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0394, Glucose: 20.0000, K2SO4: 2.8116, K2HPO4: 1.2343, FeSO4: 0.0870, NH4Cl: 13.4945, MgCl2: 3.3469, NaCl: 35.5801, (NH4)6Mo7O24: 0.0001, CoCl2: 0.0000, CuSO4: 0.0000, MnSO4: 0.0002, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.039355, Glucose: 20.000000, K2SO4: 2.811631, K2HPO4: 1.234260, FeSO4: 0.087010, NH4Cl: 13.494543, MgCl2: 3.346859, NaCl: 35.580086, (NH4)6Mo7O24: 0.000054, CoCl2: 0.000034, CuSO4: 0.000046, MnSO4: 0.000217, ZnSO4: 0.000071</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0187, Glucose: 20.0000, K2SO4: 0.0868, K2HPO4: 3.1357, FeSO4: 0.0016, NH4Cl: 6.8434, MgCl2: 0.0616, NaCl: 5.8103, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0001, CuSO4: 0.0001, MnSO4: 0.0035, ZnSO4: 0.0000</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.018675, Glucose: 20.000000, K2SO4: 0.086753, K2HPO4: 3.135703, FeSO4: 0.001613, NH4Cl: 6.843367, MgCl2: 0.061564, NaCl: 5.810257, (NH4)6Mo7O24: 0.000009, CoCl2: 0.000112, CuSO4: 0.000057, MnSO4: 0.003480, ZnSO4: 0.000042</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0187, Glucose: 20.0000, K2SO4: 0.0868, K2HPO4: 3.1357, FeSO4: 0.0016, NH4Cl: 6.8434, MgCl2: 0.0616, NaCl: 5.8103, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0001, CuSO4: 0.0001, MnSO4: 0.0035, ZnSO4: 0.0000</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.018675, Glucose: 20.000000, K2SO4: 0.086753, K2HPO4: 3.135703, FeSO4: 0.001613, NH4Cl: 6.843367, MgCl2: 0.061564, NaCl: 5.810257, (NH4)6Mo7O24: 0.000009, CoCl2: 0.000112, CuSO4: 0.000057, MnSO4: 0.003480, ZnSO4: 0.000042</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0187, Glucose: 20.0000, K2SO4: 0.0868, K2HPO4: 3.1357, FeSO4: 0.0016, NH4Cl: 6.8434, MgCl2: 0.0616, NaCl: 5.8103, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0001, CuSO4: 0.0001, MnSO4: 0.0035, ZnSO4: 0.0000</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.018675, Glucose: 20.000000, K2SO4: 0.086753, K2HPO4: 3.135703, FeSO4: 0.001613, NH4Cl: 6.843367, MgCl2: 0.061564, NaCl: 5.810257, (NH4)6Mo7O24: 0.000009, CoCl2: 0.000112, CuSO4: 0.000057, MnSO4: 0.003480, ZnSO4: 0.000042</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0187, Glucose: 20.0000, K2SO4: 0.0868, K2HPO4: 3.1357, FeSO4: 0.0016, NH4Cl: 6.8434, MgCl2: 0.0616, NaCl: 5.8103, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0001, CuSO4: 0.0001, MnSO4: 0.0035, ZnSO4: 0.0000</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.018675, Glucose: 20.000000, K2SO4: 0.086753, K2HPO4: 3.135703, FeSO4: 0.001613, NH4Cl: 6.843367, MgCl2: 0.061564, NaCl: 5.810257, (NH4)6Mo7O24: 0.000009, CoCl2: 0.000112, CuSO4: 0.000057, MnSO4: 0.003480, ZnSO4: 0.000042</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0206, Glucose: 20.0000, K2SO4: 0.6955, K2HPO4: 6.5142, FeSO4: 0.0059, NH4Cl: 11.9674, MgCl2: 0.5029, NaCl: 304.1758, (NH4)6Mo7O24: 0.0002, CoCl2: 0.0002, CuSO4: 0.0001, MnSO4: 0.0003, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.020616, Glucose: 20.000000, K2SO4: 0.695463, K2HPO4: 6.514184, FeSO4: 0.005944, NH4Cl: 11.967387, MgCl2: 0.502908, NaCl: 304.175814, (NH4)6Mo7O24: 0.000229, CoCl2: 0.000161, CuSO4: 0.000092, MnSO4: 0.000296, ZnSO4: 0.000061</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0206, Glucose: 20.0000, K2SO4: 0.6955, K2HPO4: 6.5142, FeSO4: 0.0059, NH4Cl: 11.9674, MgCl2: 0.5029, NaCl: 304.1758, (NH4)6Mo7O24: 0.0002, CoCl2: 0.0002, CuSO4: 0.0001, MnSO4: 0.0003, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.020616, Glucose: 20.000000, K2SO4: 0.695463, K2HPO4: 6.514184, FeSO4: 0.005944, NH4Cl: 11.967387, MgCl2: 0.502908, NaCl: 304.175814, (NH4)6Mo7O24: 0.000229, CoCl2: 0.000161, CuSO4: 0.000092, MnSO4: 0.000296, ZnSO4: 0.000061</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0206, Glucose: 20.0000, K2SO4: 0.6955, K2HPO4: 6.5142, FeSO4: 0.0059, NH4Cl: 11.9674, MgCl2: 0.5029, NaCl: 304.1758, (NH4)6Mo7O24: 0.0002, CoCl2: 0.0002, CuSO4: 0.0001, MnSO4: 0.0003, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.020616, Glucose: 20.000000, K2SO4: 0.695463, K2HPO4: 6.514184, FeSO4: 0.005944, NH4Cl: 11.967387, MgCl2: 0.502908, NaCl: 304.175814, (NH4)6Mo7O24: 0.000229, CoCl2: 0.000161, CuSO4: 0.000092, MnSO4: 0.000296, ZnSO4: 0.000061</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0206, Glucose: 20.0000, K2SO4: 0.6955, K2HPO4: 6.5142, FeSO4: 0.0059, NH4Cl: 11.9674, MgCl2: 0.5029, NaCl: 304.1758, (NH4)6Mo7O24: 0.0002, CoCl2: 0.0002, CuSO4: 0.0001, MnSO4: 0.0003, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.020616, Glucose: 20.000000, K2SO4: 0.695463, K2HPO4: 6.514184, FeSO4: 0.005944, NH4Cl: 11.967387, MgCl2: 0.502908, NaCl: 304.175814, (NH4)6Mo7O24: 0.000229, CoCl2: 0.000161, CuSO4: 0.000092, MnSO4: 0.000296, ZnSO4: 0.000061</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0033, Glucose: 20.0000, K2SO4: 2.5195, K2HPO4: 0.5153, FeSO4: 0.0040, NH4Cl: 13.3473, MgCl2: 0.2286, NaCl: 18.0866, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0028, CuSO4: 0.0000, MnSO4: 0.0043, ZnSO4: 0.0000</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.003338, Glucose: 20.000000, K2SO4: 2.519519, K2HPO4: 0.515306, FeSO4: 0.003967, NH4Cl: 13.347308, MgCl2: 0.228613, NaCl: 18.086604, (NH4)6Mo7O24: 0.000019, CoCl2: 0.002752, CuSO4: 0.000019, MnSO4: 0.004330, ZnSO4: 0.000029</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0033, Glucose: 20.0000, K2SO4: 2.5195, K2HPO4: 0.5153, FeSO4: 0.0040, NH4Cl: 13.3473, MgCl2: 0.2286, NaCl: 18.0866, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0028, CuSO4: 0.0000, MnSO4: 0.0043, ZnSO4: 0.0000</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.003338, Glucose: 20.000000, K2SO4: 2.519519, K2HPO4: 0.515306, FeSO4: 0.003967, NH4Cl: 13.347308, MgCl2: 0.228613, NaCl: 18.086604, (NH4)6Mo7O24: 0.000019, CoCl2: 0.002752, CuSO4: 0.000019, MnSO4: 0.004330, ZnSO4: 0.000029</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0033, Glucose: 20.0000, K2SO4: 2.5195, K2HPO4: 0.5153, FeSO4: 0.0040, NH4Cl: 13.3473, MgCl2: 0.2286, NaCl: 18.0866, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0028, CuSO4: 0.0000, MnSO4: 0.0043, ZnSO4: 0.0000</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.003338, Glucose: 20.000000, K2SO4: 2.519519, K2HPO4: 0.515306, FeSO4: 0.003967, NH4Cl: 13.347308, MgCl2: 0.228613, NaCl: 18.086604, (NH4)6Mo7O24: 0.000019, CoCl2: 0.002752, CuSO4: 0.000019, MnSO4: 0.004330, ZnSO4: 0.000029</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0033, Glucose: 20.0000, K2SO4: 2.5195, K2HPO4: 0.5153, FeSO4: 0.0040, NH4Cl: 13.3473, MgCl2: 0.2286, NaCl: 18.0866, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0028, CuSO4: 0.0000, MnSO4: 0.0043, ZnSO4: 0.0000</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.003338, Glucose: 20.000000, K2SO4: 2.519519, K2HPO4: 0.515306, FeSO4: 0.003967, NH4Cl: 13.347308, MgCl2: 0.228613, NaCl: 18.086604, (NH4)6Mo7O24: 0.000019, CoCl2: 0.002752, CuSO4: 0.000019, MnSO4: 0.004330, ZnSO4: 0.000029</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0022, Glucose: 20.0000, K2SO4: 0.1691, K2HPO4: 4.7686, FeSO4: 0.0533, NH4Cl: 13.9662, MgCl2: 0.1627, NaCl: 108.8929, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0022, CuSO4: 0.0001, MnSO4: 0.0006, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.002232, Glucose: 20.000000, K2SO4: 0.169058, K2HPO4: 4.768621, FeSO4: 0.053313, NH4Cl: 13.966184, MgCl2: 0.162662, NaCl: 108.892942, (NH4)6Mo7O24: 0.000015, CoCl2: 0.002217, CuSO4: 0.000075, MnSO4: 0.000642, ZnSO4: 0.000054</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0022, Glucose: 20.0000, K2SO4: 0.1691, K2HPO4: 4.7686, FeSO4: 0.0533, NH4Cl: 13.9662, MgCl2: 0.1627, NaCl: 108.8929, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0022, CuSO4: 0.0001, MnSO4: 0.0006, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.002232, Glucose: 20.000000, K2SO4: 0.169058, K2HPO4: 4.768621, FeSO4: 0.053313, NH4Cl: 13.966184, MgCl2: 0.162662, NaCl: 108.892942, (NH4)6Mo7O24: 0.000015, CoCl2: 0.002217, CuSO4: 0.000075, MnSO4: 0.000642, ZnSO4: 0.000054</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0022, Glucose: 20.0000, K2SO4: 0.1691, K2HPO4: 4.7686, FeSO4: 0.0533, NH4Cl: 13.9662, MgCl2: 0.1627, NaCl: 108.8929, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0022, CuSO4: 0.0001, MnSO4: 0.0006, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.002232, Glucose: 20.000000, K2SO4: 0.169058, K2HPO4: 4.768621, FeSO4: 0.053313, NH4Cl: 13.966184, MgCl2: 0.162662, NaCl: 108.892942, (NH4)6Mo7O24: 0.000015, CoCl2: 0.002217, CuSO4: 0.000075, MnSO4: 0.000642, ZnSO4: 0.000054</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0022, Glucose: 20.0000, K2SO4: 0.1691, K2HPO4: 4.7686, FeSO4: 0.0533, NH4Cl: 13.9662, MgCl2: 0.1627, NaCl: 108.8929, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0022, CuSO4: 0.0001, MnSO4: 0.0006, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.002232, Glucose: 20.000000, K2SO4: 0.169058, K2HPO4: 4.768621, FeSO4: 0.053313, NH4Cl: 13.966184, MgCl2: 0.162662, NaCl: 108.892942, (NH4)6Mo7O24: 0.000015, CoCl2: 0.002217, CuSO4: 0.000075, MnSO4: 0.000642, ZnSO4: 0.000054</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0007, Glucose: 20.0000, K2SO4: 1.1440, K2HPO4: 0.4380, FeSO4: 0.0069, NH4Cl: 9.7652, MgCl2: 0.4417, NaCl: 12.8454, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0012, CuSO4: 0.0001, MnSO4: 0.0054, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.000729, Glucose: 20.000000, K2SO4: 1.143957, K2HPO4: 0.438012, FeSO4: 0.006925, NH4Cl: 9.765248, MgCl2: 0.441682, NaCl: 12.845440, (NH4)6Mo7O24: 0.000012, CoCl2: 0.001221, CuSO4: 0.000085, MnSO4: 0.005398, ZnSO4: 0.000087</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0007, Glucose: 20.0000, K2SO4: 1.1440, K2HPO4: 0.4380, FeSO4: 0.0069, NH4Cl: 9.7652, MgCl2: 0.4417, NaCl: 12.8454, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0012, CuSO4: 0.0001, MnSO4: 0.0054, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.000729, Glucose: 20.000000, K2SO4: 1.143957, K2HPO4: 0.438012, FeSO4: 0.006925, NH4Cl: 9.765248, MgCl2: 0.441682, NaCl: 12.845440, (NH4)6Mo7O24: 0.000012, CoCl2: 0.001221, CuSO4: 0.000085, MnSO4: 0.005398, ZnSO4: 0.000087</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0007, Glucose: 20.0000, K2SO4: 1.1440, K2HPO4: 0.4380, FeSO4: 0.0069, NH4Cl: 9.7652, MgCl2: 0.4417, NaCl: 12.8454, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0012, CuSO4: 0.0001, MnSO4: 0.0054, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.000729, Glucose: 20.000000, K2SO4: 1.143957, K2HPO4: 0.438012, FeSO4: 0.006925, NH4Cl: 9.765248, MgCl2: 0.441682, NaCl: 12.845440, (NH4)6Mo7O24: 0.000012, CoCl2: 0.001221, CuSO4: 0.000085, MnSO4: 0.005398, ZnSO4: 0.000087</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0007, Glucose: 20.0000, K2SO4: 1.1440, K2HPO4: 0.4380, FeSO4: 0.0069, NH4Cl: 9.7652, MgCl2: 0.4417, NaCl: 12.8454, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0012, CuSO4: 0.0001, MnSO4: 0.0054, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.000729, Glucose: 20.000000, K2SO4: 1.143957, K2HPO4: 0.438012, FeSO4: 0.006925, NH4Cl: 9.765248, MgCl2: 0.441682, NaCl: 12.845440, (NH4)6Mo7O24: 0.000012, CoCl2: 0.001221, CuSO4: 0.000085, MnSO4: 0.005398, ZnSO4: 0.000087</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0025, Glucose: 20.0000, K2SO4: 0.1198, K2HPO4: 1.7627, FeSO4: 0.0820, NH4Cl: 8.8213, MgCl2: 0.2799, NaCl: 25.7802, (NH4)6Mo7O24: 0.0002, CoCl2: 0.0003, CuSO4: 0.0005, MnSO4: 0.0002, ZnSO4: 0.0007</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.002467, Glucose: 20.000000, K2SO4: 0.119844, K2HPO4: 1.762672, FeSO4: 0.081953, NH4Cl: 8.821329, MgCl2: 0.279924, NaCl: 25.780235, (NH4)6Mo7O24: 0.000205, CoCl2: 0.000291, CuSO4: 0.000455, MnSO4: 0.000170, ZnSO4: 0.000743</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0025, Glucose: 20.0000, K2SO4: 0.1198, K2HPO4: 1.7627, FeSO4: 0.0820, NH4Cl: 8.8213, MgCl2: 0.2799, NaCl: 25.7802, (NH4)6Mo7O24: 0.0002, CoCl2: 0.0003, CuSO4: 0.0005, MnSO4: 0.0002, ZnSO4: 0.0007</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.002467, Glucose: 20.000000, K2SO4: 0.119844, K2HPO4: 1.762672, FeSO4: 0.081953, NH4Cl: 8.821329, MgCl2: 0.279924, NaCl: 25.780235, (NH4)6Mo7O24: 0.000205, CoCl2: 0.000291, CuSO4: 0.000455, MnSO4: 0.000170, ZnSO4: 0.000743</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0025, Glucose: 20.0000, K2SO4: 0.1198, K2HPO4: 1.7627, FeSO4: 0.0820, NH4Cl: 8.8213, MgCl2: 0.2799, NaCl: 25.7802, (NH4)6Mo7O24: 0.0002, CoCl2: 0.0003, CuSO4: 0.0005, MnSO4: 0.0002, ZnSO4: 0.0007</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.002467, Glucose: 20.000000, K2SO4: 0.119844, K2HPO4: 1.762672, FeSO4: 0.081953, NH4Cl: 8.821329, MgCl2: 0.279924, NaCl: 25.780235, (NH4)6Mo7O24: 0.000205, CoCl2: 0.000291, CuSO4: 0.000455, MnSO4: 0.000170, ZnSO4: 0.000743</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0025, Glucose: 20.0000, K2SO4: 0.1198, K2HPO4: 1.7627, FeSO4: 0.0820, NH4Cl: 8.8213, MgCl2: 0.2799, NaCl: 25.7802, (NH4)6Mo7O24: 0.0002, CoCl2: 0.0003, CuSO4: 0.0005, MnSO4: 0.0002, ZnSO4: 0.0007</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.002467, Glucose: 20.000000, K2SO4: 0.119844, K2HPO4: 1.762672, FeSO4: 0.081953, NH4Cl: 8.821329, MgCl2: 0.279924, NaCl: 25.780235, (NH4)6Mo7O24: 0.000205, CoCl2: 0.000291, CuSO4: 0.000455, MnSO4: 0.000170, ZnSO4: 0.000743</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0039, Glucose: 20.0000, K2SO4: 0.2790, K2HPO4: 1.2330, FeSO4: 0.0102, NH4Cl: 9.5107, MgCl2: 0.4833, NaCl: 47.5447, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0003, CuSO4: 0.0001, MnSO4: 0.0008, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.003929, Glucose: 20.000000, K2SO4: 0.279019, K2HPO4: 1.232969, FeSO4: 0.010158, NH4Cl: 9.510727, MgCl2: 0.483299, NaCl: 47.544745, (NH4)6Mo7O24: 0.000027, CoCl2: 0.000288, CuSO4: 0.000104, MnSO4: 0.000759, ZnSO4: 0.000095</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0039, Glucose: 20.0000, K2SO4: 0.2790, K2HPO4: 1.2330, FeSO4: 0.0102, NH4Cl: 9.5107, MgCl2: 0.4833, NaCl: 47.5447, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0003, CuSO4: 0.0001, MnSO4: 0.0008, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.003929, Glucose: 20.000000, K2SO4: 0.279019, K2HPO4: 1.232969, FeSO4: 0.010158, NH4Cl: 9.510727, MgCl2: 0.483299, NaCl: 47.544745, (NH4)6Mo7O24: 0.000027, CoCl2: 0.000288, CuSO4: 0.000104, MnSO4: 0.000759, ZnSO4: 0.000095</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0039, Glucose: 20.0000, K2SO4: 0.2790, K2HPO4: 1.2330, FeSO4: 0.0102, NH4Cl: 9.5107, MgCl2: 0.4833, NaCl: 47.5447, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0003, CuSO4: 0.0001, MnSO4: 0.0008, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.003929, Glucose: 20.000000, K2SO4: 0.279019, K2HPO4: 1.232969, FeSO4: 0.010158, NH4Cl: 9.510727, MgCl2: 0.483299, NaCl: 47.544745, (NH4)6Mo7O24: 0.000027, CoCl2: 0.000288, CuSO4: 0.000104, MnSO4: 0.000759, ZnSO4: 0.000095</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MOPS: 40.0000, Tricine: 4.0000, H3BO3: 0.0039, Glucose: 20.0000, K2SO4: 0.2790, K2HPO4: 1.2330, FeSO4: 0.0102, NH4Cl: 9.5107, MgCl2: 0.4833, NaCl: 47.5447, (NH4)6Mo7O24: 0.0000, CoCl2: 0.0003, CuSO4: 0.0001, MnSO4: 0.0008, ZnSO4: 0.0001</t>
+          <t>MOPS: 40.000000, Tricine: 4.000000, H3BO3: 0.003929, Glucose: 20.000000, K2SO4: 0.279019, K2HPO4: 1.232969, FeSO4: 0.010158, NH4Cl: 9.510727, MgCl2: 0.483299, NaCl: 47.544745, (NH4)6Mo7O24: 0.000027, CoCl2: 0.000288, CuSO4: 0.000104, MnSO4: 0.000759, ZnSO4: 0.000095</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
